--- a/data/data_out/v2023/macro_nutrients_descriptive_statistics.xlsx
+++ b/data/data_out/v2023/macro_nutrients_descriptive_statistics.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="80" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="619" uniqueCount="11">
   <si>
     <t>X_ch</t>
   </si>

--- a/data/data_out/v2023/macro_nutrients_descriptive_statistics.xlsx
+++ b/data/data_out/v2023/macro_nutrients_descriptive_statistics.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="619" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="736" uniqueCount="12">
   <si>
     <t>X_ch</t>
   </si>
@@ -52,6 +52,9 @@
   </si>
   <si>
     <t>q75</t>
+  </si>
+  <si>
+    <t>iqr</t>
   </si>
 </sst>
 </file>
@@ -97,16 +100,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.5546875" customWidth="true"/>
-    <col min="2" max="2" width="11.5546875" customWidth="true"/>
-    <col min="3" max="3" width="11.5546875" customWidth="true"/>
-    <col min="4" max="4" width="11.5546875" customWidth="true"/>
+    <col min="1" max="1" width="10.5703125" customWidth="true"/>
+    <col min="2" max="2" width="11.7109375" customWidth="true"/>
+    <col min="3" max="3" width="11.7109375" customWidth="true"/>
+    <col min="4" max="4" width="11.7109375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -219,6 +222,20 @@
       </c>
       <c r="D8" s="0">
         <v>10.988546244876529</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="0">
+        <v>44.770931233286518</v>
+      </c>
+      <c r="C9" s="0">
+        <v>6.030423844792228</v>
+      </c>
+      <c r="D9" s="0">
+        <v>6.914877646550174</v>
       </c>
     </row>
   </sheetData>
@@ -227,16 +244,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.5546875" customWidth="true"/>
-    <col min="2" max="2" width="11.5546875" customWidth="true"/>
-    <col min="3" max="3" width="11.5546875" customWidth="true"/>
-    <col min="4" max="4" width="11.5546875" customWidth="true"/>
+    <col min="1" max="1" width="10.5703125" customWidth="true"/>
+    <col min="2" max="2" width="11.7109375" customWidth="true"/>
+    <col min="3" max="3" width="11.7109375" customWidth="true"/>
+    <col min="4" max="4" width="11.7109375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -349,6 +366,20 @@
       </c>
       <c r="D8" s="0">
         <v>14.427364360447278</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="0">
+        <v>66.161040167890917</v>
+      </c>
+      <c r="C9" s="0">
+        <v>4.3830038409526111</v>
+      </c>
+      <c r="D9" s="0">
+        <v>11.88238002467928</v>
       </c>
     </row>
   </sheetData>
@@ -357,16 +388,16 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.5546875" customWidth="true"/>
-    <col min="2" max="2" width="11.5546875" customWidth="true"/>
-    <col min="3" max="3" width="11.5546875" customWidth="true"/>
-    <col min="4" max="4" width="11.5546875" customWidth="true"/>
+    <col min="1" max="1" width="10.5703125" customWidth="true"/>
+    <col min="2" max="2" width="11.7109375" customWidth="true"/>
+    <col min="3" max="3" width="11.7109375" customWidth="true"/>
+    <col min="4" max="4" width="11.7109375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -479,6 +510,20 @@
       </c>
       <c r="D8" s="0">
         <v>6.6995464172843988</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="0">
+        <v>21.939167145063806</v>
+      </c>
+      <c r="C9" s="0">
+        <v>2.1966571813689848</v>
+      </c>
+      <c r="D9" s="0">
+        <v>2.4068238448213286</v>
       </c>
     </row>
   </sheetData>
@@ -487,16 +532,16 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.5546875" customWidth="true"/>
-    <col min="2" max="2" width="11.5546875" customWidth="true"/>
-    <col min="3" max="3" width="11.5546875" customWidth="true"/>
-    <col min="4" max="4" width="12.5546875" customWidth="true"/>
+    <col min="1" max="1" width="10.5703125" customWidth="true"/>
+    <col min="2" max="2" width="11.7109375" customWidth="true"/>
+    <col min="3" max="3" width="11.7109375" customWidth="true"/>
+    <col min="4" max="4" width="12.7109375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -609,6 +654,20 @@
       </c>
       <c r="D8" s="0">
         <v>0.6929674893291502</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="0">
+        <v>325.46881114621226</v>
+      </c>
+      <c r="C9" s="0">
+        <v>4.2158668272912818</v>
+      </c>
+      <c r="D9" s="0">
+        <v>0.17859390688718457</v>
       </c>
     </row>
   </sheetData>
@@ -617,16 +676,16 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.5546875" customWidth="true"/>
-    <col min="2" max="2" width="11.5546875" customWidth="true"/>
-    <col min="3" max="3" width="11.5546875" customWidth="true"/>
-    <col min="4" max="4" width="12.5546875" customWidth="true"/>
+    <col min="1" max="1" width="10.5703125" customWidth="true"/>
+    <col min="2" max="2" width="11.7109375" customWidth="true"/>
+    <col min="3" max="3" width="11.7109375" customWidth="true"/>
+    <col min="4" max="4" width="12.7109375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -739,6 +798,20 @@
       </c>
       <c r="D8" s="0">
         <v>3.4727600415213797</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="0">
+        <v>6.2344535282770224</v>
+      </c>
+      <c r="C9" s="0">
+        <v>1.5592889140136439</v>
+      </c>
+      <c r="D9" s="0">
+        <v>3.15953085543519</v>
       </c>
     </row>
   </sheetData>
@@ -747,16 +820,16 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.5546875" customWidth="true"/>
-    <col min="2" max="2" width="11.5546875" customWidth="true"/>
-    <col min="3" max="3" width="11.5546875" customWidth="true"/>
-    <col min="4" max="4" width="12.5546875" customWidth="true"/>
+    <col min="1" max="1" width="10.5703125" customWidth="true"/>
+    <col min="2" max="2" width="11.7109375" customWidth="true"/>
+    <col min="3" max="3" width="11.7109375" customWidth="true"/>
+    <col min="4" max="4" width="12.7109375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -869,6 +942,20 @@
       </c>
       <c r="D8" s="0">
         <v>4.3645973010697539</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="0">
+        <v>8.985642530511484</v>
+      </c>
+      <c r="C9" s="0">
+        <v>11.357000902078557</v>
+      </c>
+      <c r="D9" s="0">
+        <v>3.4844534329008301</v>
       </c>
     </row>
   </sheetData>
@@ -877,16 +964,16 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.5546875" customWidth="true"/>
-    <col min="2" max="2" width="12.21875" customWidth="true"/>
-    <col min="3" max="3" width="11.5546875" customWidth="true"/>
-    <col min="4" max="4" width="11.5546875" customWidth="true"/>
+    <col min="1" max="1" width="10.5703125" customWidth="true"/>
+    <col min="2" max="2" width="12.42578125" customWidth="true"/>
+    <col min="3" max="3" width="11.7109375" customWidth="true"/>
+    <col min="4" max="4" width="11.7109375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1001,6 +1088,20 @@
         <v>24.867653734024156</v>
       </c>
     </row>
+    <row r="9">
+      <c r="A9" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="0">
+        <v>78.852603409405461</v>
+      </c>
+      <c r="C9" s="0">
+        <v>75.041473619582192</v>
+      </c>
+      <c r="D9" s="0">
+        <v>9.9083796591708051</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>